--- a/02-intermediate/218-overview-information.xlsx
+++ b/02-intermediate/218-overview-information.xlsx
@@ -9,21 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" tabRatio="824"/>
   </bookViews>
   <sheets>
     <sheet name="information functions" sheetId="1" r:id="rId1"/>
     <sheet name="info" sheetId="3" r:id="rId2"/>
     <sheet name="cell" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId10"/>
+    <sheet name="iseven isodd" sheetId="5" r:id="rId4"/>
+    <sheet name="na isna" sheetId="6" r:id="rId5"/>
+    <sheet name="iserr iserror" sheetId="12" r:id="rId6"/>
+    <sheet name="isblank isformula isref" sheetId="13" r:id="rId7"/>
+    <sheet name="islogical isnontext isnumber is" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>Function</t>
   </si>
@@ -183,16 +182,153 @@
   </si>
   <si>
     <t>=INFO("SYSTEM")</t>
+  </si>
+  <si>
+    <t>=CELL("address",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("col",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("color",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("contents",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("filename",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("format",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("parentheses",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("prefix",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("protect",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("row",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("type",D3)</t>
+  </si>
+  <si>
+    <t>=CELL("width",D3)</t>
+  </si>
+  <si>
+    <t>The value 1 if the cell is formatted in color for negative values; otherwise returns 0 (zero).</t>
+  </si>
+  <si>
+    <t>Value of the upper-left cell in reference; not a formula.</t>
+  </si>
+  <si>
+    <t>format codes</t>
+  </si>
+  <si>
+    <t>The value 1 if the cell is formatted with parentheses for positive or all values; otherwise returns 0.</t>
+  </si>
+  <si>
+    <t>Text value corresponding to the "label prefix" of the cell. Returns single quotation mark (') if the cell contains left-aligned text, double quotation mark (") if the cell contains right-aligned text, caret (^) if the cell contains centered text, backslash (\) if the cell contains fill-aligned text, and empty text ("") if the cell contains anything else.</t>
+  </si>
+  <si>
+    <t>The value 0 if the cell is not locked; otherwise returns 1 if the cell is locked.</t>
+  </si>
+  <si>
+    <t>Text value corresponding to the type of data in the cell. Returns "b" for blank if the cell is empty, "l" for label if the cell contains a text constant, and "v" for value if the cell contains anything else.</t>
+  </si>
+  <si>
+    <t>Column width of the cell, rounded off to an integer.</t>
+  </si>
+  <si>
+    <t>Random Number</t>
+  </si>
+  <si>
+    <t>iseven</t>
+  </si>
+  <si>
+    <t>isodd</t>
+  </si>
+  <si>
+    <t>operand1</t>
+  </si>
+  <si>
+    <t>operand2</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>isna</t>
+  </si>
+  <si>
+    <t>iserror</t>
+  </si>
+  <si>
+    <t>iserr</t>
+  </si>
+  <si>
+    <t>isblank</t>
+  </si>
+  <si>
+    <t>isformula</t>
+  </si>
+  <si>
+    <t>isref</t>
+  </si>
+  <si>
+    <t>islogical</t>
+  </si>
+  <si>
+    <t>isnontext</t>
+  </si>
+  <si>
+    <t>isnumber</t>
+  </si>
+  <si>
+    <t>istext</t>
+  </si>
+  <si>
+    <t>"TRUE"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,10 +372,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -248,12 +385,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -565,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -797,18 +1015,6 @@
     <sortCondition ref="A2:A21"/>
     <sortCondition ref="B2:B21"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -833,7 +1039,7 @@
       </c>
       <c r="C2" s="1" t="str">
         <f ca="1">INFO("DIRECTORY")</f>
-        <v>C:\Users\Recording-PC\Documents\microsoft-excel\02-intermediate\</v>
+        <v>C:\Users\Recording-PC\Documents\</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -843,7 +1049,7 @@
       </c>
       <c r="C3" s="1">
         <f ca="1">INFO("NUMFILE")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -901,110 +1107,3843 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F5:F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="3" width="9.06640625" style="4"/>
+    <col min="4" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="78.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3">
+    <row r="2" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>40</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="11">
         <f>B3+C3</f>
         <v>42</v>
       </c>
-      <c r="F3" t="str">
-        <f ca="1">CELL("address")</f>
-        <v>$F$6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F4">
-        <f ca="1">CELL("col")</f>
-        <v>6</v>
+      <c r="E3" s="9"/>
+      <c r="F3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f ca="1">CELL("address",D3)</f>
+        <v>$D$3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="7">
+        <f ca="1">CELL("col",D3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="7">
+        <f ca="1">CELL("color",D3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="7">
+        <f ca="1">CELL("contents",D3)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f ca="1">CELL("filename",D3)</f>
+        <v>C:\Users\Recording-PC\Documents\microsoft-excel\02-intermediate\[218-overview-information.xlsx]cell</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f ca="1">CELL("format",D3)</f>
+        <v>F0-</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="7">
+        <f ca="1">CELL("parentheses",D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f ca="1">CELL("prefix",D3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="7">
+        <f ca="1">CELL("protect",D3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="7">
+        <f ca="1">CELL("row",D3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f ca="1">CELL("type",D3)</f>
+        <v>v</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="8">
+        <f ca="1">CELL("width",D3)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1" location="tblID0EBBAACAAA"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="b">
+        <f ca="1">ISEVEN(B3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <f ca="1">ISODD(B3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f t="shared" ref="B4:B39" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" ref="C4:C39" ca="1" si="1">ISEVEN(B4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" ref="D4:D39" ca="1" si="2">ISODD(B4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C19" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C20" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C21" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C24" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C25" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C26" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C27" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C28" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C29" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C30" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C31" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C33" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C34" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C35" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C36" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C37" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C38" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C39" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:D39">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C43" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f ca="1">SUM(B4:C4)</f>
+        <v>14</v>
+      </c>
+      <c r="E4" t="b">
+        <f ca="1">ISNA(D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f t="shared" ref="B5:C24" ca="1" si="1">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D43" ca="1" si="2">SUM(B5:C5)</f>
+        <v>11</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" ref="E5:E43" ca="1" si="3">ISNA(D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C21" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f t="shared" ref="B25:C43" ca="1" si="4">RANDBETWEEN(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D31" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E33" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E34" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E35" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E36" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C37" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D37" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E38" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E39" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E40" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E41" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E42" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E4:E43">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C43" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f ca="1">SUM(B4:C4)</f>
+        <v>4</v>
+      </c>
+      <c r="E4" t="b">
+        <f ca="1">ISNA(D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <f ca="1">ISERROR(D4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f ca="1">ISERR(D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f t="shared" ref="B5:C24" ca="1" si="1">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D43" ca="1" si="2">SUM(B5:C5)</f>
+        <v>4</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" ref="E5:E43" ca="1" si="3">ISNA(D5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" ref="F5:F43" ca="1" si="4">ISERROR(D5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" ref="G5:G43" ca="1" si="5">ISERR(D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D15" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C21" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f t="shared" ref="B25:C43" ca="1" si="6">RANDBETWEEN(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D31" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E33" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E34" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E35" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E36" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C37" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D37" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E38" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E39" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E40" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E41" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E42" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E43" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E4:E43">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:G43">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E4" t="b">
+        <f>ISBLANK(D4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <f>_xlfn.ISFORMULA(D4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f>ISREF(XXX777)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f t="shared" ref="B5:C24" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C4:C43" ca="1" si="1">RANDBETWEEN(0,10)</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D43" ca="1" si="2">SUM(B5:C5)</f>
+        <v>8</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" ref="E5:E43" ca="1" si="3">ISBLANK(D5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" ref="F5:F43" si="4">_xlfn.ISFORMULA(D5)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" ref="G5:G43" si="5">ISREF(D5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f t="shared" ref="B25:C37" ca="1" si="6">RANDBETWEEN(0,10)</f>
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E33" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E34" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E35" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E36" t="b">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E4:E36">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:G36">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="9.06640625" style="1"/>
+    <col min="5" max="8" width="9.06640625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D4" s="1" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="b">
+        <f>ISLOGICAL(D4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="b">
+        <f t="shared" ref="F4:F5" si="0">ISNONTEXT(D4)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="12" t="b">
+        <f t="shared" ref="G4:G5" si="1">ISNUMBER(D4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="b">
+        <f t="shared" ref="H4:H5" si="2">ISTEXT(D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="12" t="b">
+        <f>ISLOGICAL(D5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:C21" ca="1" si="3">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D33" ca="1" si="4">SUM(B6:C6)</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="b">
+        <f t="shared" ref="E6:E33" ca="1" si="5">ISLOGICAL(D6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="b">
+        <f t="shared" ref="F6:F33" ca="1" si="6">ISNONTEXT(D6)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="12" t="b">
+        <f t="shared" ref="G6:G33" ca="1" si="7">ISNUMBER(D6)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="b">
+        <f t="shared" ref="H6:H33" ca="1" si="8">ISTEXT(D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="12" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E4:E5 E6:H7">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:G5">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>